--- a/data/Monthly Mastersheet with Original Data.xlsx
+++ b/data/Monthly Mastersheet with Original Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyishen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliceye/Desktop/CryptoMacroecon-Prediction-CSUREMM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8497636-AB20-F741-9329-A5881C7251CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC51D38-3CB0-6B4A-A2F1-C9EC0BB5CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="2640" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="980" windowWidth="25420" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.30 data" sheetId="3" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1120,11 +1120,11 @@
       <c r="M2" s="5">
         <v>3535.6</v>
       </c>
-      <c r="N2" s="5">
-        <v>2916.0219999999999</v>
-      </c>
-      <c r="O2" s="5">
-        <v>2535.5010000000002</v>
+      <c r="N2" s="24">
+        <v>193973.8694</v>
+      </c>
+      <c r="O2">
+        <v>201125</v>
       </c>
       <c r="P2" s="5">
         <v>95.1</v>
@@ -1169,11 +1169,11 @@
       <c r="M3" s="5">
         <v>3615</v>
       </c>
-      <c r="N3" s="5">
-        <v>3034.0039999999999</v>
-      </c>
-      <c r="O3" s="5">
-        <v>2479.107</v>
+      <c r="N3" s="24">
+        <v>196998.9161</v>
+      </c>
+      <c r="O3">
+        <v>202855</v>
       </c>
       <c r="P3" s="5">
         <v>100.7</v>
@@ -1218,11 +1218,11 @@
       <c r="M4" s="5">
         <v>3587.6</v>
       </c>
-      <c r="N4" s="5">
-        <v>3034.0039999999999</v>
-      </c>
-      <c r="O4" s="5">
-        <v>2479.107</v>
+      <c r="N4" s="24">
+        <v>203634.48199999999</v>
+      </c>
+      <c r="O4">
+        <v>206890</v>
       </c>
       <c r="P4" s="5">
         <v>98.5</v>
@@ -1267,11 +1267,11 @@
       <c r="M5" s="5">
         <v>3630.5</v>
       </c>
-      <c r="N5" s="5">
-        <v>3034.0039999999999</v>
-      </c>
-      <c r="O5" s="5">
-        <v>2479.107</v>
+      <c r="N5" s="24">
+        <v>207891.54930000001</v>
+      </c>
+      <c r="O5">
+        <v>209690</v>
       </c>
       <c r="P5" s="5">
         <v>95.9</v>
@@ -1316,11 +1316,11 @@
       <c r="M6" s="5">
         <v>3673.4</v>
       </c>
-      <c r="N6" s="5">
-        <v>3093.299</v>
-      </c>
-      <c r="O6" s="5">
-        <v>2517.268</v>
+      <c r="N6" s="24">
+        <v>206553.2303</v>
+      </c>
+      <c r="O6">
+        <v>207358</v>
       </c>
       <c r="P6" s="5">
         <v>95.7</v>
@@ -1367,11 +1367,11 @@
       <c r="M7" s="5">
         <v>3568.2</v>
       </c>
-      <c r="N7" s="5">
-        <v>3093.299</v>
-      </c>
-      <c r="O7" s="5">
-        <v>2517.268</v>
+      <c r="N7" s="24">
+        <v>210566.1318</v>
+      </c>
+      <c r="O7">
+        <v>210539</v>
       </c>
       <c r="P7" s="5">
         <v>99.7</v>
@@ -1418,11 +1418,11 @@
       <c r="M8" s="5">
         <v>3655.7</v>
       </c>
-      <c r="N8" s="5">
-        <v>3093.299</v>
-      </c>
-      <c r="O8" s="5">
-        <v>2517.268</v>
+      <c r="N8" s="24">
+        <v>208532.82490000001</v>
+      </c>
+      <c r="O8">
+        <v>213280</v>
       </c>
       <c r="P8" s="5">
         <v>101.4</v>
@@ -1469,11 +1469,11 @@
       <c r="M9" s="5">
         <v>3728.7</v>
       </c>
-      <c r="N9" s="5">
-        <v>3105.9949999999999</v>
-      </c>
-      <c r="O9" s="5">
-        <v>2562.172</v>
+      <c r="N9" s="24">
+        <v>209993.3964</v>
+      </c>
+      <c r="O9">
+        <v>212156</v>
       </c>
       <c r="P9" s="5">
         <v>98.8</v>
@@ -1520,11 +1520,11 @@
       <c r="M10" s="5">
         <v>3632.5</v>
       </c>
-      <c r="N10" s="5">
-        <v>3105.9949999999999</v>
-      </c>
-      <c r="O10" s="5">
-        <v>2562.172</v>
+      <c r="N10" s="24">
+        <v>208636.6458</v>
+      </c>
+      <c r="O10">
+        <v>215578</v>
       </c>
       <c r="P10" s="5">
         <v>98</v>
@@ -1571,11 +1571,11 @@
       <c r="M11" s="5">
         <v>3645.5</v>
       </c>
-      <c r="N11" s="5">
-        <v>3105.9949999999999</v>
-      </c>
-      <c r="O11" s="5">
-        <v>2562.172</v>
+      <c r="N11" s="24">
+        <v>209572.02720000001</v>
+      </c>
+      <c r="O11">
+        <v>213466</v>
       </c>
       <c r="P11" s="5">
         <v>98.2</v>
@@ -1622,11 +1622,11 @@
       <c r="M12" s="5">
         <v>3699.4</v>
       </c>
-      <c r="N12" s="5">
-        <v>3153.7469999999998</v>
-      </c>
-      <c r="O12" s="5">
-        <v>2535.5010000000002</v>
+      <c r="N12" s="24">
+        <v>212417.06080000001</v>
+      </c>
+      <c r="O12">
+        <v>211540</v>
       </c>
       <c r="P12" s="5">
         <v>97.9</v>
@@ -1673,11 +1673,11 @@
       <c r="M13" s="5">
         <v>3664.8</v>
       </c>
-      <c r="N13" s="5">
-        <v>3153.7469999999998</v>
-      </c>
-      <c r="O13" s="5">
-        <v>2535.5010000000002</v>
+      <c r="N13" s="24">
+        <v>212257.98209999999</v>
+      </c>
+      <c r="O13">
+        <v>211420</v>
       </c>
       <c r="P13" s="5">
         <v>96.2</v>
@@ -1724,11 +1724,11 @@
       <c r="M14" s="5">
         <v>3678.4</v>
       </c>
-      <c r="N14" s="5">
-        <v>3153.7469999999998</v>
-      </c>
-      <c r="O14" s="5">
-        <v>2535.5010000000002</v>
+      <c r="N14" s="24">
+        <v>215409.59460000001</v>
+      </c>
+      <c r="O14">
+        <v>213852</v>
       </c>
       <c r="P14" s="5">
         <v>100.1</v>
@@ -1775,11 +1775,11 @@
       <c r="M15" s="5">
         <v>3727.4</v>
       </c>
-      <c r="N15" s="5">
-        <v>3171.6219999999998</v>
-      </c>
-      <c r="O15" s="5">
-        <v>2537.415</v>
+      <c r="N15" s="24">
+        <v>217026.4149</v>
+      </c>
+      <c r="O15">
+        <v>214288</v>
       </c>
       <c r="P15" s="5">
         <v>98.6</v>
@@ -1826,11 +1826,11 @@
       <c r="M16" s="5">
         <v>3664.2</v>
       </c>
-      <c r="N16" s="5">
-        <v>3171.6219999999998</v>
-      </c>
-      <c r="O16" s="5">
-        <v>2537.415</v>
+      <c r="N16" s="24">
+        <v>210969.72649999999</v>
+      </c>
+      <c r="O16">
+        <v>211755</v>
       </c>
       <c r="P16" s="5">
         <v>97.5</v>
@@ -1877,11 +1877,11 @@
       <c r="M17" s="5">
         <v>3814.2</v>
       </c>
-      <c r="N17" s="5">
-        <v>3171.6219999999998</v>
-      </c>
-      <c r="O17" s="5">
-        <v>2537.415</v>
+      <c r="N17" s="24">
+        <v>214210.2384</v>
+      </c>
+      <c r="O17">
+        <v>209350</v>
       </c>
       <c r="P17" s="5">
         <v>98.3</v>
@@ -1930,11 +1930,11 @@
       <c r="M18" s="5">
         <v>3728.9</v>
       </c>
-      <c r="N18" s="5">
-        <v>3132.5390000000002</v>
-      </c>
-      <c r="O18" s="5">
-        <v>2540.2440000000001</v>
+      <c r="N18" s="24">
+        <v>209025.2537</v>
+      </c>
+      <c r="O18">
+        <v>211144</v>
       </c>
       <c r="P18" s="5">
         <v>91.2</v>
@@ -1983,11 +1983,11 @@
       <c r="M19" s="5">
         <v>3710.7</v>
       </c>
-      <c r="N19" s="5">
-        <v>3132.5390000000002</v>
-      </c>
-      <c r="O19" s="5">
-        <v>2540.2440000000001</v>
+      <c r="N19" s="24">
+        <v>209281.38219999999</v>
+      </c>
+      <c r="O19">
+        <v>213288</v>
       </c>
       <c r="P19" s="5">
         <v>93.8</v>
@@ -2036,11 +2036,11 @@
       <c r="M20" s="5">
         <v>3726.1</v>
       </c>
-      <c r="N20" s="5">
-        <v>3132.5390000000002</v>
-      </c>
-      <c r="O20" s="5">
-        <v>2540.2440000000001</v>
+      <c r="N20" s="24">
+        <v>210780.74770000001</v>
+      </c>
+      <c r="O20">
+        <v>214650</v>
       </c>
       <c r="P20" s="5">
         <v>98.4</v>
@@ -2089,11 +2089,11 @@
       <c r="M21" s="5">
         <v>3843.9</v>
       </c>
-      <c r="N21" s="5">
-        <v>3165.41</v>
-      </c>
-      <c r="O21" s="5">
-        <v>2547.4479999999999</v>
+      <c r="N21" s="24">
+        <v>208800.1727</v>
+      </c>
+      <c r="O21">
+        <v>211246</v>
       </c>
       <c r="P21" s="5">
         <v>97.2</v>
@@ -2142,11 +2142,11 @@
       <c r="M22" s="5">
         <v>3761</v>
       </c>
-      <c r="N22" s="5">
-        <v>3165.41</v>
-      </c>
-      <c r="O22" s="5">
-        <v>2547.4479999999999</v>
+      <c r="N22" s="24">
+        <v>214094.93049999999</v>
+      </c>
+      <c r="O22">
+        <v>215480</v>
       </c>
       <c r="P22" s="5">
         <v>100</v>
@@ -2195,11 +2195,11 @@
       <c r="M23" s="5">
         <v>3825.2</v>
       </c>
-      <c r="N23" s="5">
-        <v>3165.41</v>
-      </c>
-      <c r="O23" s="5">
-        <v>2547.4479999999999</v>
+      <c r="N23" s="24">
+        <v>209355.7169</v>
+      </c>
+      <c r="O23">
+        <v>212818</v>
       </c>
       <c r="P23" s="5">
         <v>98.2</v>
@@ -2248,11 +2248,11 @@
       <c r="M24" s="5">
         <v>3872.9</v>
       </c>
-      <c r="N24" s="5">
-        <v>3117.9520000000002</v>
-      </c>
-      <c r="O24" s="5">
-        <v>2532.4050000000002</v>
+      <c r="N24" s="24">
+        <v>209386.8118</v>
+      </c>
+      <c r="O24">
+        <v>212797</v>
       </c>
       <c r="P24" s="5">
         <v>98.4</v>
@@ -2301,11 +2301,11 @@
       <c r="M25" s="5">
         <v>3833.5</v>
       </c>
-      <c r="N25" s="5">
-        <v>3117.9520000000002</v>
-      </c>
-      <c r="O25" s="5">
-        <v>2532.4050000000002</v>
+      <c r="N25" s="24">
+        <v>209358.0675</v>
+      </c>
+      <c r="O25">
+        <v>212599</v>
       </c>
       <c r="P25" s="5">
         <v>89.8</v>
@@ -2354,11 +2354,11 @@
       <c r="M26" s="5">
         <v>3903.1</v>
       </c>
-      <c r="N26" s="5">
-        <v>3117.9520000000002</v>
-      </c>
-      <c r="O26" s="5">
-        <v>2532.4050000000002</v>
+      <c r="N26" s="24">
+        <v>204455.6306</v>
+      </c>
+      <c r="O26">
+        <v>211602</v>
       </c>
       <c r="P26" s="5">
         <v>93.2</v>
@@ -2407,11 +2407,11 @@
       <c r="M27" s="5">
         <v>3898.3</v>
       </c>
-      <c r="N27" s="5">
-        <v>3050.8240000000001</v>
-      </c>
-      <c r="O27" s="5">
-        <v>2537.4659999999999</v>
+      <c r="N27" s="24">
+        <v>202068.37160000001</v>
+      </c>
+      <c r="O27">
+        <v>212281</v>
       </c>
       <c r="P27" s="5">
         <v>95.5</v>
@@ -2460,11 +2460,11 @@
       <c r="M28" s="5">
         <v>3916.2</v>
       </c>
-      <c r="N28" s="5">
-        <v>3050.8240000000001</v>
-      </c>
-      <c r="O28" s="5">
-        <v>2537.4659999999999</v>
+      <c r="N28" s="24">
+        <v>200193.467</v>
+      </c>
+      <c r="O28">
+        <v>212786</v>
       </c>
       <c r="P28" s="5">
         <v>96.8</v>
@@ -2513,11 +2513,11 @@
       <c r="M29" s="5">
         <v>4051.6</v>
       </c>
-      <c r="N29" s="5">
-        <v>3050.8240000000001</v>
-      </c>
-      <c r="O29" s="5">
-        <v>2537.4659999999999</v>
+      <c r="N29" s="24">
+        <v>204899.01550000001</v>
+      </c>
+      <c r="O29">
+        <v>213402</v>
       </c>
       <c r="P29" s="5">
         <v>99.3</v>
@@ -2566,11 +2566,11 @@
       <c r="M30" s="5">
         <v>3960.6</v>
       </c>
-      <c r="N30" s="5">
-        <v>2929.759</v>
-      </c>
-      <c r="O30" s="5">
-        <v>2416.181</v>
+      <c r="N30" s="24">
+        <v>201885.35190000001</v>
+      </c>
+      <c r="O30">
+        <v>208878</v>
       </c>
       <c r="P30" s="5">
         <v>99.8</v>
@@ -2619,11 +2619,11 @@
       <c r="M31" s="5">
         <v>3950.5</v>
       </c>
-      <c r="N31" s="5">
-        <v>2929.759</v>
-      </c>
-      <c r="O31" s="5">
-        <v>2416.181</v>
+      <c r="N31" s="24">
+        <v>198128.56210000001</v>
+      </c>
+      <c r="O31">
+        <v>209544</v>
       </c>
       <c r="P31" s="5">
         <v>101</v>
@@ -2672,11 +2672,11 @@
       <c r="M32" s="5">
         <v>4244.2</v>
       </c>
-      <c r="N32" s="5">
-        <v>2929.759</v>
-      </c>
-      <c r="O32" s="5">
-        <v>2416.181</v>
+      <c r="N32" s="24">
+        <v>190862.69380000001</v>
+      </c>
+      <c r="O32">
+        <v>190055</v>
       </c>
       <c r="P32" s="5">
         <v>89.1</v>
@@ -2725,11 +2725,11 @@
       <c r="M33" s="5">
         <v>4804</v>
       </c>
-      <c r="N33" s="5">
-        <v>2350.9259999999999</v>
-      </c>
-      <c r="O33" s="5">
-        <v>1814.4010000000001</v>
+      <c r="N33" s="24">
+        <v>168318.23069999999</v>
+      </c>
+      <c r="O33">
+        <v>151929</v>
       </c>
       <c r="P33" s="5">
         <v>71.8</v>
@@ -2778,11 +2778,11 @@
       <c r="M34" s="5">
         <v>16100.1</v>
       </c>
-      <c r="N34" s="5">
-        <v>2350.9259999999999</v>
-      </c>
-      <c r="O34" s="5">
-        <v>1814.4010000000001</v>
+      <c r="N34" s="24">
+        <v>166040.92079999999</v>
+      </c>
+      <c r="O34">
+        <v>147143</v>
       </c>
       <c r="P34" s="5">
         <v>72.3</v>
@@ -2831,11 +2831,11 @@
       <c r="M35" s="5">
         <v>16496</v>
       </c>
-      <c r="N35" s="5">
-        <v>2350.9259999999999</v>
-      </c>
-      <c r="O35" s="5">
-        <v>1814.4010000000001</v>
+      <c r="N35" s="24">
+        <v>174324.6329</v>
+      </c>
+      <c r="O35">
+        <v>160760</v>
       </c>
       <c r="P35" s="5">
         <v>78.099999999999994</v>
@@ -2884,11 +2884,11 @@
       <c r="M36" s="5">
         <v>16745.3</v>
       </c>
-      <c r="N36" s="5">
-        <v>2801.482</v>
-      </c>
-      <c r="O36" s="5">
-        <v>2105.0830000000001</v>
+      <c r="N36" s="24">
+        <v>194876.10209999999</v>
+      </c>
+      <c r="O36">
+        <v>172697</v>
       </c>
       <c r="P36" s="5">
         <v>72.5</v>
@@ -2937,11 +2937,11 @@
       <c r="M37" s="5">
         <v>16846.8</v>
       </c>
-      <c r="N37" s="5">
-        <v>2801.482</v>
-      </c>
-      <c r="O37" s="5">
-        <v>2105.0830000000001</v>
+      <c r="N37" s="24">
+        <v>200956.0012</v>
+      </c>
+      <c r="O37">
+        <v>176731</v>
       </c>
       <c r="P37" s="5">
         <v>74.099999999999994</v>
@@ -2990,11 +2990,11 @@
       <c r="M38" s="5">
         <v>17128.5</v>
       </c>
-      <c r="N38" s="5">
-        <v>2801.482</v>
-      </c>
-      <c r="O38" s="5">
-        <v>2105.0830000000001</v>
+      <c r="N38" s="24">
+        <v>200321.20980000001</v>
+      </c>
+      <c r="O38">
+        <v>182527</v>
       </c>
       <c r="P38" s="5">
         <v>80.400000000000006</v>
@@ -3043,11 +3043,11 @@
       <c r="M39" s="5">
         <v>17280.7</v>
       </c>
-      <c r="N39" s="5">
-        <v>3027.1990000000001</v>
-      </c>
-      <c r="O39" s="5">
-        <v>2268.8910000000001</v>
+      <c r="N39" s="24">
+        <v>206545.0485</v>
+      </c>
+      <c r="O39">
+        <v>185902</v>
       </c>
       <c r="P39" s="5">
         <v>81.8</v>
@@ -3096,11 +3096,11 @@
       <c r="M40" s="5">
         <v>17604</v>
       </c>
-      <c r="N40" s="5">
-        <v>3027.1990000000001</v>
-      </c>
-      <c r="O40" s="5">
-        <v>2268.8910000000001</v>
+      <c r="N40" s="24">
+        <v>213303.23920000001</v>
+      </c>
+      <c r="O40">
+        <v>190228</v>
       </c>
       <c r="P40" s="5">
         <v>76.900000000000006</v>
@@ -3149,11 +3149,11 @@
       <c r="M41" s="5">
         <v>17920.099999999999</v>
       </c>
-      <c r="N41" s="5">
-        <v>3027.1990000000001</v>
-      </c>
-      <c r="O41" s="5">
-        <v>2268.8910000000001</v>
+      <c r="N41" s="24">
+        <v>215915.18770000001</v>
+      </c>
+      <c r="O41">
+        <v>196454</v>
       </c>
       <c r="P41" s="5">
         <v>80.7</v>
@@ -3202,11 +3202,11 @@
       <c r="M42" s="5">
         <v>18064.5</v>
       </c>
-      <c r="N42" s="5">
-        <v>3176.982</v>
-      </c>
-      <c r="O42" s="5">
-        <v>2381.2240000000002</v>
+      <c r="N42" s="24">
+        <v>219282.94200000001</v>
+      </c>
+      <c r="O42">
+        <v>199093</v>
       </c>
       <c r="P42" s="5">
         <v>79</v>
@@ -3255,11 +3255,11 @@
       <c r="M43" s="5">
         <v>18185.5</v>
       </c>
-      <c r="N43" s="5">
-        <v>3176.982</v>
-      </c>
-      <c r="O43" s="5">
-        <v>2381.2240000000002</v>
+      <c r="N43" s="24">
+        <v>218351.0056</v>
+      </c>
+      <c r="O43">
+        <v>195739</v>
       </c>
       <c r="P43" s="5">
         <v>76.8</v>
@@ -3308,11 +3308,11 @@
       <c r="M44" s="5">
         <v>18622.599999999999</v>
       </c>
-      <c r="N44" s="5">
-        <v>3176.982</v>
-      </c>
-      <c r="O44" s="5">
-        <v>2381.2240000000002</v>
+      <c r="N44" s="24">
+        <v>230164.4987</v>
+      </c>
+      <c r="O44">
+        <v>208951</v>
       </c>
       <c r="P44" s="5">
         <v>84.9</v>
@@ -3361,11 +3361,11 @@
       <c r="M45" s="5">
         <v>19052.099999999999</v>
       </c>
-      <c r="N45" s="5">
-        <v>3340.114</v>
-      </c>
-      <c r="O45" s="5">
-        <v>2505.0320000000002</v>
+      <c r="N45" s="24">
+        <v>228751.63819999999</v>
+      </c>
+      <c r="O45">
+        <v>209117</v>
       </c>
       <c r="P45" s="5">
         <v>88.3</v>
@@ -3414,11 +3414,11 @@
       <c r="M46" s="5">
         <v>19127.099999999999</v>
       </c>
-      <c r="N46" s="5">
-        <v>3340.114</v>
-      </c>
-      <c r="O46" s="5">
-        <v>2505.0320000000002</v>
+      <c r="N46" s="24">
+        <v>230774.98149999999</v>
+      </c>
+      <c r="O46">
+        <v>211641</v>
       </c>
       <c r="P46" s="5">
         <v>82.9</v>
@@ -3467,11 +3467,11 @@
       <c r="M47" s="5">
         <v>19264.900000000001</v>
       </c>
-      <c r="N47" s="5">
-        <v>3340.114</v>
-      </c>
-      <c r="O47" s="5">
-        <v>2505.0320000000002</v>
+      <c r="N47" s="24">
+        <v>236397.0447</v>
+      </c>
+      <c r="O47">
+        <v>214009</v>
       </c>
       <c r="P47" s="5">
         <v>85.5</v>
@@ -3520,11 +3520,11 @@
       <c r="M48" s="5">
         <v>19425.7</v>
       </c>
-      <c r="N48" s="5">
-        <v>3458.7829999999999</v>
-      </c>
-      <c r="O48" s="5">
-        <v>2570.1030000000001</v>
+      <c r="N48" s="24">
+        <v>233642.1581</v>
+      </c>
+      <c r="O48">
+        <v>216286</v>
       </c>
       <c r="P48" s="5">
         <v>81.2</v>
@@ -3573,11 +3573,11 @@
       <c r="M49" s="5">
         <v>19635</v>
       </c>
-      <c r="N49" s="5">
-        <v>3458.7829999999999</v>
-      </c>
-      <c r="O49" s="5">
-        <v>2570.1030000000001</v>
+      <c r="N49" s="24">
+        <v>236969.89730000001</v>
+      </c>
+      <c r="O49">
+        <v>217728</v>
       </c>
       <c r="P49" s="5">
         <v>70.3</v>
@@ -3626,11 +3626,11 @@
       <c r="M50" s="5">
         <v>19827.599999999999</v>
       </c>
-      <c r="N50" s="5">
-        <v>3458.7829999999999</v>
-      </c>
-      <c r="O50" s="5">
-        <v>2570.1030000000001</v>
+      <c r="N50" s="24">
+        <v>236556.95970000001</v>
+      </c>
+      <c r="O50">
+        <v>214183</v>
       </c>
       <c r="P50" s="5">
         <v>72.8</v>
@@ -3679,11 +3679,11 @@
       <c r="M51" s="5">
         <v>19988.3</v>
       </c>
-      <c r="N51" s="5">
-        <v>3685.9560000000001</v>
-      </c>
-      <c r="O51" s="5">
-        <v>2765.36</v>
+      <c r="N51" s="24">
+        <v>241691.77429999999</v>
+      </c>
+      <c r="O51">
+        <v>228772</v>
       </c>
       <c r="P51" s="5">
         <v>71.7</v>
@@ -3732,11 +3732,11 @@
       <c r="M52" s="5">
         <v>20225</v>
       </c>
-      <c r="N52" s="5">
-        <v>3685.9560000000001</v>
-      </c>
-      <c r="O52" s="5">
-        <v>2765.36</v>
+      <c r="N52" s="24">
+        <v>255960.21280000001</v>
+      </c>
+      <c r="O52">
+        <v>231756</v>
       </c>
       <c r="P52" s="5">
         <v>67.400000000000006</v>
@@ -3785,11 +3785,11 @@
       <c r="M53" s="5">
         <v>20567.900000000001</v>
       </c>
-      <c r="N53" s="5">
-        <v>3685.9560000000001</v>
-      </c>
-      <c r="O53" s="5">
-        <v>2765.36</v>
+      <c r="N53" s="24">
+        <v>259972.38709999999</v>
+      </c>
+      <c r="O53">
+        <v>236793</v>
       </c>
       <c r="P53" s="5">
         <v>70.599999999999994</v>
@@ -3838,11 +3838,11 @@
       <c r="M54" s="5">
         <v>20555.5</v>
       </c>
-      <c r="N54" s="5">
-        <v>3925.7420000000002</v>
-      </c>
-      <c r="O54" s="5">
-        <v>2848.6979999999999</v>
+      <c r="N54" s="24">
+        <v>261133.77069999999</v>
+      </c>
+      <c r="O54">
+        <v>232637</v>
       </c>
       <c r="P54" s="5">
         <v>67.2</v>
@@ -3891,11 +3891,11 @@
       <c r="M55" s="5">
         <v>20523.599999999999</v>
       </c>
-      <c r="N55" s="5">
-        <v>3925.7420000000002</v>
-      </c>
-      <c r="O55" s="5">
-        <v>2848.6979999999999</v>
+      <c r="N55" s="24">
+        <v>263790.00599999999</v>
+      </c>
+      <c r="O55">
+        <v>237005</v>
       </c>
       <c r="P55" s="5">
         <v>62.8</v>
@@ -3944,11 +3944,11 @@
       <c r="M56" s="5">
         <v>20789.400000000001</v>
       </c>
-      <c r="N56" s="5">
-        <v>3925.7420000000002</v>
-      </c>
-      <c r="O56" s="5">
-        <v>2848.6979999999999</v>
+      <c r="N56" s="24">
+        <v>288926.6066</v>
+      </c>
+      <c r="O56">
+        <v>248299</v>
       </c>
       <c r="P56" s="5">
         <v>59.4</v>
@@ -3997,11 +3997,11 @@
       <c r="M57" s="5">
         <v>20873.400000000001</v>
       </c>
-      <c r="N57" s="5">
-        <v>4093.663</v>
-      </c>
-      <c r="O57" s="5">
-        <v>3071.5509999999999</v>
+      <c r="N57" s="24">
+        <v>279054.9743</v>
+      </c>
+      <c r="O57">
+        <v>256715</v>
       </c>
       <c r="P57" s="5">
         <v>65.2</v>
@@ -4050,11 +4050,11 @@
       <c r="M58" s="5">
         <v>20552.900000000001</v>
       </c>
-      <c r="N58" s="5">
-        <v>4093.663</v>
-      </c>
-      <c r="O58" s="5">
-        <v>3071.5509999999999</v>
+      <c r="N58" s="24">
+        <v>279341.61379999999</v>
+      </c>
+      <c r="O58">
+        <v>259050</v>
       </c>
       <c r="P58" s="5">
         <v>58.4</v>
@@ -4103,11 +4103,11 @@
       <c r="M59" s="5">
         <v>20542.3</v>
       </c>
-      <c r="N59" s="5">
-        <v>4093.663</v>
-      </c>
-      <c r="O59" s="5">
-        <v>3071.5509999999999</v>
+      <c r="N59" s="24">
+        <v>279308.28739999997</v>
+      </c>
+      <c r="O59">
+        <v>262615</v>
       </c>
       <c r="P59" s="5">
         <v>50</v>
@@ -4156,11 +4156,11 @@
       <c r="M60" s="5">
         <v>20492.2</v>
       </c>
-      <c r="N60" s="5">
-        <v>3988.4470000000001</v>
-      </c>
-      <c r="O60" s="5">
-        <v>3102.55</v>
+      <c r="N60" s="24">
+        <v>269553.28600000002</v>
+      </c>
+      <c r="O60">
+        <v>265032</v>
       </c>
       <c r="P60" s="5">
         <v>51.5</v>
@@ -4209,11 +4209,11 @@
       <c r="M61" s="5">
         <v>20411.2</v>
       </c>
-      <c r="N61" s="5">
-        <v>3988.4470000000001</v>
-      </c>
-      <c r="O61" s="5">
-        <v>3102.55</v>
+      <c r="N61" s="24">
+        <v>268103.33480000001</v>
+      </c>
+      <c r="O61">
+        <v>265216</v>
       </c>
       <c r="P61" s="5">
         <v>58.2</v>
@@ -4262,11 +4262,11 @@
       <c r="M62" s="5">
         <v>20265.400000000001</v>
       </c>
-      <c r="N62" s="5">
-        <v>3988.4470000000001</v>
-      </c>
-      <c r="O62" s="5">
-        <v>3102.55</v>
+      <c r="N62" s="24">
+        <v>265814.63740000001</v>
+      </c>
+      <c r="O62">
+        <v>262473</v>
       </c>
       <c r="P62" s="5">
         <v>58.6</v>
@@ -4315,11 +4315,11 @@
       <c r="M63" s="5">
         <v>20063.400000000001</v>
       </c>
-      <c r="N63" s="5">
-        <v>3897.402</v>
-      </c>
-      <c r="O63" s="5">
-        <v>3046.7179999999998</v>
+      <c r="N63" s="24">
+        <v>270299.08860000002</v>
+      </c>
+      <c r="O63">
+        <v>259671</v>
       </c>
       <c r="P63" s="5">
         <v>59.9</v>
@@ -4368,11 +4368,11 @@
       <c r="M64" s="5">
         <v>19943.900000000001</v>
       </c>
-      <c r="N64" s="5">
-        <v>3897.402</v>
-      </c>
-      <c r="O64" s="5">
-        <v>3046.7179999999998</v>
+      <c r="N64" s="24">
+        <v>254661.8573</v>
+      </c>
+      <c r="O64">
+        <v>256225</v>
       </c>
       <c r="P64" s="5">
         <v>56.7</v>
@@ -4421,11 +4421,11 @@
       <c r="M65" s="5">
         <v>19871.2</v>
       </c>
-      <c r="N65" s="5">
-        <v>3897.402</v>
-      </c>
-      <c r="O65" s="5">
-        <v>3046.7179999999998</v>
+      <c r="N65" s="24">
+        <v>259745.4718</v>
+      </c>
+      <c r="O65">
+        <v>253508</v>
       </c>
       <c r="P65" s="5">
         <v>59.8</v>
@@ -4474,11 +4474,11 @@
       <c r="M66" s="5">
         <v>19582.3</v>
       </c>
-      <c r="N66" s="5">
-        <v>3874.21</v>
-      </c>
-      <c r="O66" s="5">
-        <v>3060.5619999999999</v>
+      <c r="N66" s="24">
+        <v>264143.55739999999</v>
+      </c>
+      <c r="O66">
+        <v>259974</v>
       </c>
       <c r="P66" s="5">
         <v>64.900000000000006</v>
@@ -4527,11 +4527,11 @@
       <c r="M67" s="5">
         <v>19285.8</v>
       </c>
-      <c r="N67" s="5">
-        <v>3874.21</v>
-      </c>
-      <c r="O67" s="5">
-        <v>3060.5619999999999</v>
+      <c r="N67" s="24">
+        <v>258962.17259999999</v>
+      </c>
+      <c r="O67">
+        <v>254337</v>
       </c>
       <c r="P67" s="5">
         <v>66.900000000000006</v>
@@ -4580,11 +4580,11 @@
       <c r="M68" s="5">
         <v>19072.099999999999</v>
       </c>
-      <c r="N68" s="5">
-        <v>3874.21</v>
-      </c>
-      <c r="O68" s="5">
-        <v>3060.5619999999999</v>
+      <c r="N68" s="24">
+        <v>253489.45319999999</v>
+      </c>
+      <c r="O68">
+        <v>259541</v>
       </c>
       <c r="P68" s="5">
         <v>62</v>
@@ -4633,11 +4633,11 @@
       <c r="M69" s="5">
         <v>18777</v>
       </c>
-      <c r="N69" s="5">
-        <v>3799.0030000000002</v>
-      </c>
-      <c r="O69" s="5">
-        <v>2995.5239999999999</v>
+      <c r="N69" s="24">
+        <v>259147.38959999999</v>
+      </c>
+      <c r="O69">
+        <v>253608</v>
       </c>
       <c r="P69" s="5">
         <v>63.7</v>
@@ -4686,11 +4686,11 @@
       <c r="M70" s="5">
         <v>18450.2</v>
       </c>
-      <c r="N70" s="5">
-        <v>3799.0030000000002</v>
-      </c>
-      <c r="O70" s="5">
-        <v>2995.5239999999999</v>
+      <c r="N70" s="24">
+        <v>253230.8554</v>
+      </c>
+      <c r="O70">
+        <v>252569</v>
       </c>
       <c r="P70" s="5">
         <v>59</v>
@@ -4739,11 +4739,11 @@
       <c r="M71" s="5">
         <v>18403.599999999999</v>
       </c>
-      <c r="N71" s="5">
-        <v>3799.0030000000002</v>
-      </c>
-      <c r="O71" s="5">
-        <v>2995.5239999999999</v>
+      <c r="N71" s="24">
+        <v>251577.24350000001</v>
+      </c>
+      <c r="O71">
+        <v>251879</v>
       </c>
       <c r="P71" s="5">
         <v>64.2</v>
@@ -4792,11 +4792,11 @@
       <c r="M72" s="5">
         <v>18303.400000000001</v>
       </c>
-      <c r="N72" s="5">
-        <v>3843.1320000000001</v>
-      </c>
-      <c r="O72" s="5">
-        <v>3062.0410000000002</v>
+      <c r="N72" s="24">
+        <v>254490.58429999999</v>
+      </c>
+      <c r="O72">
+        <v>255576</v>
       </c>
       <c r="P72" s="5">
         <v>71.5</v>
@@ -4845,11 +4845,11 @@
       <c r="M73" s="5">
         <v>18187.8</v>
       </c>
-      <c r="N73" s="5">
-        <v>3843.1320000000001</v>
-      </c>
-      <c r="O73" s="5">
-        <v>3062.0410000000002</v>
+      <c r="N73" s="24">
+        <v>253943.32560000001</v>
+      </c>
+      <c r="O73">
+        <v>259963</v>
       </c>
       <c r="P73" s="5">
         <v>69.400000000000006</v>
@@ -4898,11 +4898,11 @@
       <c r="M74" s="5">
         <v>18104.2</v>
       </c>
-      <c r="N74" s="5">
-        <v>3843.1320000000001</v>
-      </c>
-      <c r="O74" s="5">
-        <v>3062.0410000000002</v>
+      <c r="N74" s="24">
+        <v>256709.57329999999</v>
+      </c>
+      <c r="O74">
+        <v>263533</v>
       </c>
       <c r="P74" s="5">
         <v>67.8</v>
@@ -4951,11 +4951,11 @@
       <c r="M75" s="5">
         <v>17992</v>
       </c>
-      <c r="N75" s="5">
-        <v>3882.8989999999999</v>
-      </c>
-      <c r="O75" s="5">
-        <v>3091.748</v>
+      <c r="N75" s="24">
+        <v>259092.01869999999</v>
+      </c>
+      <c r="O75">
+        <v>262463</v>
       </c>
       <c r="P75" s="5">
         <v>63.8</v>
@@ -5004,11 +5004,11 @@
       <c r="M76" s="5">
         <v>17964.8</v>
       </c>
-      <c r="N76" s="5">
-        <v>3882.8989999999999</v>
-      </c>
-      <c r="O76" s="5">
-        <v>3091.748</v>
+      <c r="N76" s="24">
+        <v>254530.54399999999</v>
+      </c>
+      <c r="O76">
+        <v>257254</v>
       </c>
       <c r="P76" s="5">
         <v>61.3</v>
@@ -5057,11 +5057,11 @@
       <c r="M77" s="5">
         <v>18068.599999999999</v>
       </c>
-      <c r="N77" s="5">
-        <v>3882.8989999999999</v>
-      </c>
-      <c r="O77" s="5">
-        <v>3091.748</v>
+      <c r="N77" s="24">
+        <v>257479.6586</v>
+      </c>
+      <c r="O77">
+        <v>261838</v>
       </c>
       <c r="P77" s="5">
         <v>69.7</v>
@@ -5110,11 +5110,11 @@
       <c r="M78" s="5">
         <v>17981.099999999999</v>
       </c>
-      <c r="N78" s="5">
-        <v>3966.989</v>
-      </c>
-      <c r="O78" s="5">
-        <v>3125.4209999999998</v>
+      <c r="N78" s="24">
+        <v>260110.71960000001</v>
+      </c>
+      <c r="O78">
+        <v>261796</v>
       </c>
       <c r="P78" s="5">
         <v>79</v>
@@ -5163,11 +5163,11 @@
       <c r="M79" s="5">
         <v>17882.099999999999</v>
       </c>
-      <c r="N79" s="5">
-        <v>3966.989</v>
-      </c>
-      <c r="O79" s="5">
-        <v>3125.4209999999998</v>
+      <c r="N79" s="24">
+        <v>265047.1778</v>
+      </c>
+      <c r="O79">
+        <v>269323</v>
       </c>
       <c r="P79" s="5">
         <v>76.900000000000006</v>
@@ -5216,11 +5216,11 @@
       <c r="M80" s="5">
         <v>18057.5</v>
       </c>
-      <c r="N80" s="5">
-        <v>3966.989</v>
-      </c>
-      <c r="O80" s="5">
-        <v>3125.4209999999998</v>
+      <c r="N80" s="24">
+        <v>262308.13020000001</v>
+      </c>
+      <c r="O80">
+        <v>265638</v>
       </c>
       <c r="P80" s="5">
         <v>79.400000000000006</v>
@@ -5269,11 +5269,11 @@
       <c r="M81" s="5">
         <v>18090</v>
       </c>
-      <c r="N81" s="5">
-        <v>4061.192</v>
-      </c>
-      <c r="O81" s="5">
-        <v>3154.3209999999999</v>
+      <c r="N81" s="24">
+        <v>269267.24300000002</v>
+      </c>
+      <c r="O81">
+        <v>266393</v>
       </c>
       <c r="P81" s="5">
         <v>77.2</v>
@@ -5322,11 +5322,11 @@
       <c r="M82" s="5">
         <v>17907</v>
       </c>
-      <c r="N82" s="5">
-        <v>4061.192</v>
-      </c>
-      <c r="O82" s="5">
-        <v>3154.3209999999999</v>
+      <c r="N82" s="24">
+        <v>268297.96049999999</v>
+      </c>
+      <c r="O82">
+        <v>264976</v>
       </c>
       <c r="P82" s="5">
         <v>69.099999999999994</v>
@@ -5375,11 +5375,11 @@
       <c r="M83" s="5">
         <v>18004.8</v>
       </c>
-      <c r="N83" s="5">
-        <v>4061.192</v>
-      </c>
-      <c r="O83" s="5">
-        <v>3154.3209999999999</v>
+      <c r="N83" s="24">
+        <v>270832.54519999999</v>
+      </c>
+      <c r="O83">
+        <v>268356</v>
       </c>
       <c r="P83" s="5">
         <v>68.2</v>
@@ -5428,11 +5428,11 @@
       <c r="M84" s="5">
         <v>17980.099999999999</v>
       </c>
-      <c r="N84" s="5">
-        <v>4163.9750000000004</v>
-      </c>
-      <c r="O84" s="5">
-        <v>3220.2919999999999</v>
+      <c r="N84" s="24">
+        <v>276766.47399999999</v>
+      </c>
+      <c r="O84">
+        <v>271115</v>
       </c>
       <c r="P84" s="5">
         <v>66.400000000000006</v>
@@ -5481,11 +5481,11 @@
       <c r="M85" s="5">
         <v>18046.599999999999</v>
       </c>
-      <c r="N85" s="5">
-        <v>4163.9750000000004</v>
-      </c>
-      <c r="O85" s="5">
-        <v>3220.2919999999999</v>
+      <c r="N85" s="24">
+        <v>272777.27720000001</v>
+      </c>
+      <c r="O85">
+        <v>275719</v>
       </c>
       <c r="P85" s="5">
         <v>67.900000000000006</v>
@@ -5534,11 +5534,11 @@
       <c r="M86" s="5">
         <v>18115.599999999999</v>
       </c>
-      <c r="N86" s="5">
-        <v>4163.9750000000004</v>
-      </c>
-      <c r="O86" s="5">
-        <v>3220.2919999999999</v>
+      <c r="N86" s="24">
+        <v>281009.27990000002</v>
+      </c>
+      <c r="O86">
+        <v>273687</v>
       </c>
       <c r="P86" s="5">
         <v>70.099999999999994</v>
@@ -5587,11 +5587,11 @@
       <c r="M87" s="5">
         <v>18150.8</v>
       </c>
-      <c r="N87" s="5">
-        <v>4141.0129999999999</v>
-      </c>
-      <c r="O87" s="5">
-        <v>3220.9290000000001</v>
+      <c r="N87" s="24">
+        <v>268698.69089999999</v>
+      </c>
+      <c r="O87">
+        <v>269501</v>
       </c>
       <c r="P87" s="5">
         <v>70.5</v>
@@ -5640,11 +5640,11 @@
       <c r="M88" s="5">
         <v>18325</v>
       </c>
-      <c r="N88" s="5">
-        <v>4141.0129999999999</v>
-      </c>
-      <c r="O88" s="5">
-        <v>3220.9290000000001</v>
+      <c r="N88" s="24">
+        <v>280404.36259999999</v>
+      </c>
+      <c r="O88">
+        <v>275828</v>
       </c>
       <c r="P88" s="5">
         <v>71.8</v>
@@ -5693,11 +5693,11 @@
       <c r="M89" s="5">
         <v>18500.2</v>
       </c>
-      <c r="N89" s="5">
-        <v>4141.0129999999999</v>
-      </c>
-      <c r="O89" s="5">
-        <v>3220.9290000000001</v>
+      <c r="N89" s="24">
+        <v>290890.33429999999</v>
+      </c>
+      <c r="O89">
+        <v>270192</v>
       </c>
       <c r="P89" s="5">
         <v>74</v>
@@ -5746,11 +5746,11 @@
       <c r="M90" s="5">
         <v>18473.2</v>
       </c>
-      <c r="N90" s="5">
-        <v>4548.8090000000002</v>
-      </c>
-      <c r="O90" s="5">
-        <v>3281.248</v>
+      <c r="N90" s="24">
+        <v>327795.77919999999</v>
+      </c>
+      <c r="O90">
+        <v>272436</v>
       </c>
       <c r="P90" s="5">
         <v>71.7</v>

--- a/data/Monthly Mastersheet with Original Data.xlsx
+++ b/data/Monthly Mastersheet with Original Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliceye/Desktop/CryptoMacroecon-Prediction-CSUREMM/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC51D38-3CB0-6B4A-A2F1-C9EC0BB5CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4D294D-3E25-8D44-A27C-987A6F21909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="980" windowWidth="25420" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Monthly Mastersheet with Original Data.xlsx
+++ b/data/Monthly Mastersheet with Original Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tianyishen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8497636-AB20-F741-9329-A5881C7251CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2960D0AA-E9E5-5545-BF78-37A93C8970C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="2640" windowWidth="29400" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5360" yWindow="760" windowWidth="22080" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6.30 data" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>Month</t>
   </si>
@@ -153,6 +153,18 @@
   <si>
     <t>note: Sep-17 means data of last month (Oct)</t>
   </si>
+  <si>
+    <t>PC1_crypto</t>
+  </si>
+  <si>
+    <t>PC2_crypto</t>
+  </si>
+  <si>
+    <t>PC1_macro</t>
+  </si>
+  <si>
+    <t>PC2_macro</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +175,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,6 +316,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +331,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -358,11 +376,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +488,12 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,10 +1059,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1031,7 +1070,7 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1122,20 @@
       <c r="Q1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="4">
         <v>42979</v>
       </c>
@@ -1132,8 +1183,14 @@
       <c r="Q2" s="5">
         <v>19743.84</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="T2">
+        <v>-3826.233217861718</v>
+      </c>
+      <c r="U2">
+        <v>9161.5929153655125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="4">
         <v>43009</v>
       </c>
@@ -1181,8 +1238,14 @@
       <c r="Q3" s="5">
         <v>19758.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="T3">
+        <v>-3739.416870975349</v>
+      </c>
+      <c r="U3">
+        <v>9122.5959508060187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="4">
         <v>43040</v>
       </c>
@@ -1230,8 +1293,14 @@
       <c r="Q4" s="5">
         <v>19912.89</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="T4">
+        <v>-3841.473651024156</v>
+      </c>
+      <c r="U4">
+        <v>9233.0962819360939</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="4">
         <v>43070</v>
       </c>
@@ -1279,8 +1348,14 @@
       <c r="Q5" s="5">
         <v>19975.98</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="T5">
+        <v>-3858.8931662271948</v>
+      </c>
+      <c r="U5">
+        <v>9241.2115568942772</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="4">
         <v>43101</v>
       </c>
@@ -1328,8 +1403,14 @@
       <c r="Q6" s="5">
         <v>20005.47</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="T6">
+        <v>-3761.841460858755</v>
+      </c>
+      <c r="U6">
+        <v>9226.2610757437451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="4">
         <v>43132</v>
       </c>
@@ -1379,8 +1460,20 @@
       <c r="Q7" s="5">
         <v>20093.46</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>-3.3581337007158938</v>
+      </c>
+      <c r="S7">
+        <v>0.2665635989196215</v>
+      </c>
+      <c r="T7">
+        <v>-3856.283211030579</v>
+      </c>
+      <c r="U7">
+        <v>9350.8379636330646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="4">
         <v>43160</v>
       </c>
@@ -1430,8 +1523,20 @@
       <c r="Q8" s="5">
         <v>20033.28</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>-4.1012666156225777</v>
+      </c>
+      <c r="S8">
+        <v>0.1225572373121939</v>
+      </c>
+      <c r="T8">
+        <v>-3778.2221052727441</v>
+      </c>
+      <c r="U8">
+        <v>9255.5219743579546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="4">
         <v>43191</v>
       </c>
@@ -1481,8 +1586,20 @@
       <c r="Q9" s="5">
         <v>20087.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>-5.354265045427943</v>
+      </c>
+      <c r="S9">
+        <v>-0.17882229749610101</v>
+      </c>
+      <c r="T9">
+        <v>-3718.720589334157</v>
+      </c>
+      <c r="U9">
+        <v>9233.3533927869266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="4">
         <v>43221</v>
       </c>
@@ -1532,8 +1649,20 @@
       <c r="Q10" s="5">
         <v>20183.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>-5.3030584190533334</v>
+      </c>
+      <c r="S10">
+        <v>2.8069791561904981E-2</v>
+      </c>
+      <c r="T10">
+        <v>-3818.64754725684</v>
+      </c>
+      <c r="U10">
+        <v>9355.868689979774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="4">
         <v>43252</v>
       </c>
@@ -1583,8 +1712,20 @@
       <c r="Q11" s="5">
         <v>20181.03</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>-6.7769000459241271</v>
+      </c>
+      <c r="S11">
+        <v>-0.1039280722327264</v>
+      </c>
+      <c r="T11">
+        <v>-3810.4096320153699</v>
+      </c>
+      <c r="U11">
+        <v>9345.7839774386066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="4">
         <v>43282</v>
       </c>
@@ -1634,8 +1775,20 @@
       <c r="Q12" s="5">
         <v>20259.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>-6.6774252718917504</v>
+      </c>
+      <c r="S12">
+        <v>-0.1358656803248427</v>
+      </c>
+      <c r="T12">
+        <v>-3811.8874201581748</v>
+      </c>
+      <c r="U12">
+        <v>9358.7925490375274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="4">
         <v>43313</v>
       </c>
@@ -1685,8 +1838,20 @@
       <c r="Q13" s="5">
         <v>20292.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>-7.5779885902621338</v>
+      </c>
+      <c r="S13">
+        <v>0.155538758103867</v>
+      </c>
+      <c r="T13">
+        <v>-3848.7974392896299</v>
+      </c>
+      <c r="U13">
+        <v>9401.4179221857994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="4">
         <v>43344</v>
       </c>
@@ -1736,8 +1901,20 @@
       <c r="Q14" s="5">
         <v>20276.13</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>-6.0941762830776254</v>
+      </c>
+      <c r="S14">
+        <v>0.41476835227858849</v>
+      </c>
+      <c r="T14">
+        <v>-3828.521503925233</v>
+      </c>
+      <c r="U14">
+        <v>9382.9073966290507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="4">
         <v>43374</v>
       </c>
@@ -1787,8 +1964,20 @@
       <c r="Q15" s="5">
         <v>20281.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>-5.6274776580796386</v>
+      </c>
+      <c r="S15">
+        <v>0.3535360438809203</v>
+      </c>
+      <c r="T15">
+        <v>-3790.501539328618</v>
+      </c>
+      <c r="U15">
+        <v>9352.4046806211027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="4">
         <v>43405</v>
       </c>
@@ -1838,8 +2027,20 @@
       <c r="Q16" s="5">
         <v>20303.16</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>-8.2696040908300876</v>
+      </c>
+      <c r="S16">
+        <v>0.16642011193167419</v>
+      </c>
+      <c r="T16">
+        <v>-3835.1654167114748</v>
+      </c>
+      <c r="U16">
+        <v>9408.5802783322197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="4">
         <v>43435</v>
       </c>
@@ -1889,8 +2090,20 @@
       <c r="Q17" s="5">
         <v>20330.45</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>-6.0081404845422313</v>
+      </c>
+      <c r="S17">
+        <v>-0.40309909614179301</v>
+      </c>
+      <c r="T17">
+        <v>-3778.1473372865362</v>
+      </c>
+      <c r="U17">
+        <v>9323.00407547547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="4">
         <v>43466</v>
       </c>
@@ -1942,8 +2155,20 @@
       <c r="Q18" s="5">
         <v>20441.599999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>-5.8202247443110107</v>
+      </c>
+      <c r="S18">
+        <v>-0.43874835251630412</v>
+      </c>
+      <c r="T18">
+        <v>-3920.870858900068</v>
+      </c>
+      <c r="U18">
+        <v>9445.9213770913593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="4">
         <v>43497</v>
       </c>
@@ -1995,8 +2220,20 @@
       <c r="Q19" s="5">
         <v>20392.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>-7.7671096644095119</v>
+      </c>
+      <c r="S19">
+        <v>-0.76841078302822385</v>
+      </c>
+      <c r="T19">
+        <v>-3898.595312487003</v>
+      </c>
+      <c r="U19">
+        <v>9429.4181395762698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="4">
         <v>43525</v>
       </c>
@@ -2048,8 +2285,20 @@
       <c r="Q20" s="5">
         <v>20460.61</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>-7.7292760512233709</v>
+      </c>
+      <c r="S20">
+        <v>-0.61082979322090813</v>
+      </c>
+      <c r="T20">
+        <v>-3923.052095462248</v>
+      </c>
+      <c r="U20">
+        <v>9459.5514092674748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="4">
         <v>43556</v>
       </c>
@@ -2101,8 +2350,20 @@
       <c r="Q21" s="5">
         <v>20528.61</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>-10.54856492171583</v>
+      </c>
+      <c r="S21">
+        <v>-0.84460405019229656</v>
+      </c>
+      <c r="T21">
+        <v>-3867.556432512868</v>
+      </c>
+      <c r="U21">
+        <v>9418.8946194098262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="4">
         <v>43586</v>
       </c>
@@ -2154,8 +2415,20 @@
       <c r="Q22" s="5">
         <v>20574.189999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>-6.5872559305004614</v>
+      </c>
+      <c r="S22">
+        <v>4.0717840411561471E-2</v>
+      </c>
+      <c r="T22">
+        <v>-3929.4530412069112</v>
+      </c>
+      <c r="U22">
+        <v>9502.7884389137798</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="4">
         <v>43617</v>
       </c>
@@ -2207,8 +2480,20 @@
       <c r="Q23" s="5">
         <v>20704.080000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>-5.9760571548710333</v>
+      </c>
+      <c r="S23">
+        <v>-0.26331199737530048</v>
+      </c>
+      <c r="T23">
+        <v>-3973.0869531453591</v>
+      </c>
+      <c r="U23">
+        <v>9536.2389646735774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="4">
         <v>43647</v>
       </c>
@@ -2260,8 +2545,20 @@
       <c r="Q24" s="5">
         <v>20811.189999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>-6.9850754181245636</v>
+      </c>
+      <c r="S24">
+        <v>-0.77197472296601055</v>
+      </c>
+      <c r="T24">
+        <v>-4067.5068539438898</v>
+      </c>
+      <c r="U24">
+        <v>9568.6091343453809</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="4">
         <v>43678</v>
       </c>
@@ -2313,8 +2610,20 @@
       <c r="Q25" s="5">
         <v>20839.759999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>-6.2834034855558398</v>
+      </c>
+      <c r="S25">
+        <v>-0.164359020739057</v>
+      </c>
+      <c r="T25">
+        <v>-4111.6924838884524</v>
+      </c>
+      <c r="U25">
+        <v>9611.3369168393474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="4">
         <v>43709</v>
       </c>
@@ -2366,8 +2675,20 @@
       <c r="Q26" s="5">
         <v>20879.060000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>-8.366179434660415</v>
+      </c>
+      <c r="S26">
+        <v>-0.53116653330548524</v>
+      </c>
+      <c r="T26">
+        <v>-4096.5250660309248</v>
+      </c>
+      <c r="U26">
+        <v>9587.7448587028957</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="4">
         <v>43739</v>
       </c>
@@ -2419,8 +2740,20 @@
       <c r="Q27" s="5">
         <v>20899.68</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>-7.16427240655901</v>
+      </c>
+      <c r="S27">
+        <v>-0.1219932726350174</v>
+      </c>
+      <c r="T27">
+        <v>-4163.5061649941636</v>
+      </c>
+      <c r="U27">
+        <v>9602.4532143358792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="4">
         <v>43770</v>
       </c>
@@ -2472,8 +2805,20 @@
       <c r="Q28" s="5">
         <v>21028.79</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="R28">
+        <v>-8.0538781646201034</v>
+      </c>
+      <c r="S28">
+        <v>-0.41237174282032379</v>
+      </c>
+      <c r="T28">
+        <v>-4226.151816547158</v>
+      </c>
+      <c r="U28">
+        <v>9667.1281769399375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="4">
         <v>43800</v>
       </c>
@@ -2525,8 +2870,20 @@
       <c r="Q29" s="5">
         <v>21028.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>-8.3541460853949019</v>
+      </c>
+      <c r="S29">
+        <v>0.38457407680269329</v>
+      </c>
+      <c r="T29">
+        <v>-4158.2887992253691</v>
+      </c>
+      <c r="U29">
+        <v>9574.8407943747497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="4">
         <v>43831</v>
       </c>
@@ -2578,8 +2935,20 @@
       <c r="Q30" s="5">
         <v>21001.98</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>-9.0826768991883817</v>
+      </c>
+      <c r="S30">
+        <v>-0.44979961289829318</v>
+      </c>
+      <c r="T30">
+        <v>-4416.5780113826404</v>
+      </c>
+      <c r="U30">
+        <v>9631.7103761993312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="4">
         <v>43862</v>
       </c>
@@ -2631,8 +3000,20 @@
       <c r="Q31" s="5">
         <v>21049.65</v>
       </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="R31">
+        <v>-5.1222581694756917</v>
+      </c>
+      <c r="S31">
+        <v>2.292082072515742</v>
+      </c>
+      <c r="T31">
+        <v>-4446.1719011423238</v>
+      </c>
+      <c r="U31">
+        <v>9667.0111144236307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="4">
         <v>43891</v>
       </c>
@@ -2684,8 +3065,20 @@
       <c r="Q32" s="5">
         <v>20028.759999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>-7.1957584543844586</v>
+      </c>
+      <c r="S32">
+        <v>-0.14015528684647571</v>
+      </c>
+      <c r="T32">
+        <v>-3747.8951646267769</v>
+      </c>
+      <c r="U32">
+        <v>8857.2422352609447</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="4">
         <v>43922</v>
       </c>
@@ -2737,8 +3130,20 @@
       <c r="Q33" s="5">
         <v>18228.400000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="R33">
+        <v>-2.90538120825122</v>
+      </c>
+      <c r="S33">
+        <v>-0.42287575679661638</v>
+      </c>
+      <c r="T33">
+        <v>-3617.0953252802628</v>
+      </c>
+      <c r="U33">
+        <v>7452.8956437287206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="4">
         <v>43952</v>
       </c>
@@ -2790,8 +3195,20 @@
       <c r="Q34" s="5">
         <v>19001.28</v>
       </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="R34">
+        <v>-7.2076870003117586</v>
+      </c>
+      <c r="S34">
+        <v>-0.4581071594234879</v>
+      </c>
+      <c r="T34">
+        <v>1379.9018458281009</v>
+      </c>
+      <c r="U34">
+        <v>222.15930296046179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="4">
         <v>43983</v>
       </c>
@@ -2843,8 +3260,20 @@
       <c r="Q35" s="5">
         <v>19942.07</v>
       </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="R35">
+        <v>-8.0549253842856317</v>
+      </c>
+      <c r="S35">
+        <v>-0.65426419239807687</v>
+      </c>
+      <c r="T35">
+        <v>1051.4333811390579</v>
+      </c>
+      <c r="U35">
+        <v>513.52438420262797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="4">
         <v>44013</v>
       </c>
@@ -2896,8 +3325,20 @@
       <c r="Q36" s="5">
         <v>20373.16</v>
       </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="R36">
+        <v>-10.144431757374271</v>
+      </c>
+      <c r="S36">
+        <v>-0.62247727294284239</v>
+      </c>
+      <c r="T36">
+        <v>1623.765493591693</v>
+      </c>
+      <c r="U36">
+        <v>575.54458093821825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="4">
         <v>44044</v>
       </c>
@@ -2949,8 +3390,20 @@
       <c r="Q37" s="5">
         <v>20531.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>-7.3947413136494884</v>
+      </c>
+      <c r="S37">
+        <v>0.6471826663467547</v>
+      </c>
+      <c r="T37">
+        <v>1586.612152492271</v>
+      </c>
+      <c r="U37">
+        <v>600.75580786920523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="4">
         <v>44075</v>
       </c>
@@ -3002,8 +3455,20 @@
       <c r="Q38" s="5">
         <v>20745.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>-7.846162885715227</v>
+      </c>
+      <c r="S38">
+        <v>-0.19995613663117501</v>
+      </c>
+      <c r="T38">
+        <v>1609.0845221656759</v>
+      </c>
+      <c r="U38">
+        <v>536.65661872795067</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="4">
         <v>44105</v>
       </c>
@@ -3055,8 +3520,20 @@
       <c r="Q39" s="5">
         <v>20868.45</v>
       </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="R39">
+        <v>-7.2478754333207167</v>
+      </c>
+      <c r="S39">
+        <v>-0.49216955837163229</v>
+      </c>
+      <c r="T39">
+        <v>1982.914316837584</v>
+      </c>
+      <c r="U39">
+        <v>493.06847554436541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="4">
         <v>44136</v>
       </c>
@@ -3108,8 +3585,20 @@
       <c r="Q40" s="5">
         <v>20654.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="R40">
+        <v>-10.399258447458919</v>
+      </c>
+      <c r="S40">
+        <v>-1.052287442916245</v>
+      </c>
+      <c r="T40">
+        <v>2252.7738208306532</v>
+      </c>
+      <c r="U40">
+        <v>144.76437000847491</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="4">
         <v>44166</v>
       </c>
@@ -3161,8 +3650,20 @@
       <c r="Q41" s="5">
         <v>20795.82</v>
       </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>-5.5602621893359219</v>
+      </c>
+      <c r="S41">
+        <v>6.496530406606954E-2</v>
+      </c>
+      <c r="T41">
+        <v>2329.681893798594</v>
+      </c>
+      <c r="U41">
+        <v>14.17527510877837</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="4">
         <v>44197</v>
       </c>
@@ -3214,8 +3715,20 @@
       <c r="Q42" s="5">
         <v>21116.94</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="R42">
+        <v>-5.3691349480217472</v>
+      </c>
+      <c r="S42">
+        <v>0.20415524191613171</v>
+      </c>
+      <c r="T42">
+        <v>2466.3892433507208</v>
+      </c>
+      <c r="U42">
+        <v>97.054070810033309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="4">
         <v>44228</v>
       </c>
@@ -3267,8 +3780,20 @@
       <c r="Q43" s="5">
         <v>20812.89</v>
       </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="R43">
+        <v>-3.020427014629111</v>
+      </c>
+      <c r="S43">
+        <v>1.067124980728563</v>
+      </c>
+      <c r="T43">
+        <v>2693.6567190424421</v>
+      </c>
+      <c r="U43">
+        <v>-166.6866371708424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="4">
         <v>44256</v>
       </c>
@@ -3320,8 +3845,20 @@
       <c r="Q44" s="5">
         <v>21249.16</v>
       </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="R44">
+        <v>-4.5002045490556037</v>
+      </c>
+      <c r="S44">
+        <v>0.44919543032549408</v>
+      </c>
+      <c r="T44">
+        <v>2669.84484395251</v>
+      </c>
+      <c r="U44">
+        <v>-203.94113002722261</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="4">
         <v>44287</v>
       </c>
@@ -3373,8 +3910,20 @@
       <c r="Q45" s="5">
         <v>21366.84</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>-6.7275926788560199</v>
+      </c>
+      <c r="S45">
+        <v>-5.6025199772345033E-2</v>
+      </c>
+      <c r="T45">
+        <v>3087.3352326150489</v>
+      </c>
+      <c r="U45">
+        <v>-436.58480523532609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="4">
         <v>44317</v>
       </c>
@@ -3426,8 +3975,20 @@
       <c r="Q46" s="5">
         <v>21372.81</v>
       </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="R46">
+        <v>-4.9108413859913842</v>
+      </c>
+      <c r="S46">
+        <v>1.060999317133257</v>
+      </c>
+      <c r="T46">
+        <v>3116.3288337044742</v>
+      </c>
+      <c r="U46">
+        <v>-484.99284252691592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="4">
         <v>44348</v>
       </c>
@@ -3479,8 +4040,20 @@
       <c r="Q47" s="5">
         <v>21431.14</v>
       </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>-2.5477134681678701</v>
+      </c>
+      <c r="S47">
+        <v>0.25077091848864508</v>
+      </c>
+      <c r="T47">
+        <v>3154.9884883157861</v>
+      </c>
+      <c r="U47">
+        <v>-544.03484018503002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="4">
         <v>44378</v>
       </c>
@@ -3532,8 +4105,20 @@
       <c r="Q48" s="5">
         <v>21541.96</v>
       </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>-5.3571054090290549</v>
+      </c>
+      <c r="S48">
+        <v>0.41113443328539973</v>
+      </c>
+      <c r="T48">
+        <v>3339.5207639771361</v>
+      </c>
+      <c r="U48">
+        <v>-593.35463486029482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="4">
         <v>44409</v>
       </c>
@@ -3585,8 +4170,20 @@
       <c r="Q49" s="5">
         <v>21539.89</v>
       </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="R49">
+        <v>-7.9103536833524402</v>
+      </c>
+      <c r="S49">
+        <v>-9.0576620849664641E-2</v>
+      </c>
+      <c r="T49">
+        <v>3430.3047936431972</v>
+      </c>
+      <c r="U49">
+        <v>-738.50513382297777</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="4">
         <v>44440</v>
       </c>
@@ -3638,8 +4235,20 @@
       <c r="Q50" s="5">
         <v>21636.07</v>
       </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="R50">
+        <v>-6.2001362129771147</v>
+      </c>
+      <c r="S50">
+        <v>0.3104062725251599</v>
+      </c>
+      <c r="T50">
+        <v>3472.342563239321</v>
+      </c>
+      <c r="U50">
+        <v>-812.22952682404036</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="4">
         <v>44470</v>
       </c>
@@ -3691,8 +4300,20 @@
       <c r="Q51" s="5">
         <v>21900.48</v>
       </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>-6.0784467831241908</v>
+      </c>
+      <c r="S51">
+        <v>-9.2413411053526934E-2</v>
+      </c>
+      <c r="T51">
+        <v>3803.1716497664429</v>
+      </c>
+      <c r="U51">
+        <v>-781.32703224466911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="4">
         <v>44501</v>
       </c>
@@ -3744,8 +4365,20 @@
       <c r="Q52" s="5">
         <v>21905.88</v>
       </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="R52">
+        <v>-7.6326297750407104</v>
+      </c>
+      <c r="S52">
+        <v>0.16621704269960619</v>
+      </c>
+      <c r="T52">
+        <v>3910.677297441021</v>
+      </c>
+      <c r="U52">
+        <v>-939.85052639049445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="4">
         <v>44531</v>
       </c>
@@ -3797,8 +4430,20 @@
       <c r="Q53" s="5">
         <v>22078.63</v>
       </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="R53">
+        <v>-7.4139790782312378</v>
+      </c>
+      <c r="S53">
+        <v>-0.29467148489379308</v>
+      </c>
+      <c r="T53">
+        <v>3982.986005641721</v>
+      </c>
+      <c r="U53">
+        <v>-1070.188819903027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="4">
         <v>44562</v>
       </c>
@@ -3850,8 +4495,20 @@
       <c r="Q54" s="5">
         <v>21890.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>-7.002467119976111</v>
+      </c>
+      <c r="S54">
+        <v>3.2950570713628641E-2</v>
+      </c>
+      <c r="T54">
+        <v>4381.5112504748349</v>
+      </c>
+      <c r="U54">
+        <v>-1180.024982253103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="4">
         <v>44593</v>
       </c>
@@ -3903,8 +4560,20 @@
       <c r="Q55" s="5">
         <v>21846.52</v>
       </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="R55">
+        <v>-7.2976662301249329</v>
+      </c>
+      <c r="S55">
+        <v>-0.23912367973169349</v>
+      </c>
+      <c r="T55">
+        <v>4388.6674193086246</v>
+      </c>
+      <c r="U55">
+        <v>-1185.453056750446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="4">
         <v>44621</v>
       </c>
@@ -3956,8 +4625,20 @@
       <c r="Q56" s="5">
         <v>21978.03</v>
       </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="R56">
+        <v>-6.8626034386396562</v>
+      </c>
+      <c r="S56">
+        <v>-0.24018145320694589</v>
+      </c>
+      <c r="T56">
+        <v>4442.8709865238516</v>
+      </c>
+      <c r="U56">
+        <v>-1288.9080129466149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="4">
         <v>44652</v>
       </c>
@@ -4009,8 +4690,20 @@
       <c r="Q57" s="5">
         <v>21945.02</v>
       </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="R57">
+        <v>-8.2268964671839306</v>
+      </c>
+      <c r="S57">
+        <v>-0.27334980456341912</v>
+      </c>
+      <c r="T57">
+        <v>4883.5352617950957</v>
+      </c>
+      <c r="U57">
+        <v>-1385.091210432952</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="4">
         <v>44682</v>
       </c>
@@ -4062,8 +4755,20 @@
       <c r="Q58" s="5">
         <v>21934.66</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="R58">
+        <v>-7.8586527470886116</v>
+      </c>
+      <c r="S58">
+        <v>0.33305430026011817</v>
+      </c>
+      <c r="T58">
+        <v>4731.5204066788519</v>
+      </c>
+      <c r="U58">
+        <v>-1173.9262452480191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="4">
         <v>44713</v>
       </c>
@@ -4115,8 +4820,20 @@
       <c r="Q59" s="5">
         <v>21881.66</v>
       </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="R59">
+        <v>-5.2548872366030137</v>
+      </c>
+      <c r="S59">
+        <v>-3.2229366164613071E-4</v>
+      </c>
+      <c r="T59">
+        <v>4751.2986854350092</v>
+      </c>
+      <c r="U59">
+        <v>-1199.611314216701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="4">
         <v>44743</v>
       </c>
@@ -4168,8 +4885,20 @@
       <c r="Q60" s="5">
         <v>21940.22</v>
       </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>-5.7130509682525634</v>
+      </c>
+      <c r="S60">
+        <v>-0.1050690033619775</v>
+      </c>
+      <c r="T60">
+        <v>4631.633844302738</v>
+      </c>
+      <c r="U60">
+        <v>-1134.134100189505</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="4">
         <v>44774</v>
       </c>
@@ -4221,8 +4950,20 @@
       <c r="Q61" s="5">
         <v>22182.86</v>
       </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>-7.5072800022451709</v>
+      </c>
+      <c r="S61">
+        <v>-0.39529302353625179</v>
+      </c>
+      <c r="T61">
+        <v>4464.5202083902041</v>
+      </c>
+      <c r="U61">
+        <v>-933.35486997056091</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="4">
         <v>44805</v>
       </c>
@@ -4274,8 +5015,20 @@
       <c r="Q62" s="5">
         <v>22080.95</v>
       </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="R62">
+        <v>-8.0385909955263699</v>
+      </c>
+      <c r="S62">
+        <v>-0.10336374900772791</v>
+      </c>
+      <c r="T62">
+        <v>4452.6769990056127</v>
+      </c>
+      <c r="U62">
+        <v>-894.65344895056239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="4">
         <v>44835</v>
       </c>
@@ -4327,8 +5080,20 @@
       <c r="Q63" s="5">
         <v>22227.78</v>
       </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="R63">
+        <v>-7.7045743307852819</v>
+      </c>
+      <c r="S63">
+        <v>-0.24144369647397071</v>
+      </c>
+      <c r="T63">
+        <v>4138.0948633710323</v>
+      </c>
+      <c r="U63">
+        <v>-665.05147815884925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="4">
         <v>44866</v>
       </c>
@@ -4380,8 +5145,20 @@
       <c r="Q64" s="5">
         <v>22256.87</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>-9.0703814150945767</v>
+      </c>
+      <c r="S64">
+        <v>0.68209248412046319</v>
+      </c>
+      <c r="T64">
+        <v>4061.3337052021739</v>
+      </c>
+      <c r="U64">
+        <v>-566.48065950474609</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="4">
         <v>44896</v>
       </c>
@@ -4433,8 +5210,20 @@
       <c r="Q65" s="5">
         <v>22267.360000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="R65">
+        <v>-5.3403832865719716</v>
+      </c>
+      <c r="S65">
+        <v>0.12788758677805459</v>
+      </c>
+      <c r="T65">
+        <v>4023.2961097718371</v>
+      </c>
+      <c r="U65">
+        <v>-509.94028280459008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="4">
         <v>44927</v>
       </c>
@@ -4486,8 +5275,20 @@
       <c r="Q66" s="5">
         <v>22413.27</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="R66">
+        <v>-9.8184353456277673</v>
+      </c>
+      <c r="S66">
+        <v>0.19252117279730349</v>
+      </c>
+      <c r="T66">
+        <v>3803.283551764574</v>
+      </c>
+      <c r="U66">
+        <v>-227.43843409725449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="4">
         <v>44958</v>
       </c>
@@ -4539,8 +5340,20 @@
       <c r="Q67" s="5">
         <v>22345.46</v>
       </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="R67">
+        <v>-8.8457653692251572</v>
+      </c>
+      <c r="S67">
+        <v>-0.2417011729731845</v>
+      </c>
+      <c r="T67">
+        <v>3702.608707638306</v>
+      </c>
+      <c r="U67">
+        <v>-65.691602713485082</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="4">
         <v>44986</v>
       </c>
@@ -4592,8 +5405,20 @@
       <c r="Q68" s="5">
         <v>22455.21</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>-9.423183897536104</v>
+      </c>
+      <c r="S68">
+        <v>-0.16892623764378731</v>
+      </c>
+      <c r="T68">
+        <v>3534.3854362859302</v>
+      </c>
+      <c r="U68">
+        <v>144.55865538092641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="4">
         <v>45017</v>
       </c>
@@ -4645,8 +5470,20 @@
       <c r="Q69" s="5">
         <v>22451.62</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="R69">
+        <v>-7.2866040903825438</v>
+      </c>
+      <c r="S69">
+        <v>-0.17999196912664281</v>
+      </c>
+      <c r="T69">
+        <v>3264.9089280082412</v>
+      </c>
+      <c r="U69">
+        <v>348.98982689615627</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="4">
         <v>45047</v>
       </c>
@@ -4698,8 +5535,20 @@
       <c r="Q70" s="5">
         <v>22571.71</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>-9.2168556109253679</v>
+      </c>
+      <c r="S70">
+        <v>0.24813363717907561</v>
+      </c>
+      <c r="T70">
+        <v>3036.6374482891551</v>
+      </c>
+      <c r="U70">
+        <v>642.42798107385693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="4">
         <v>45078</v>
       </c>
@@ -4751,8 +5600,20 @@
       <c r="Q71" s="5">
         <v>22598.78</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="R71">
+        <v>-10.58910677078469</v>
+      </c>
+      <c r="S71">
+        <v>-0.44501731910775189</v>
+      </c>
+      <c r="T71">
+        <v>3005.465721918551</v>
+      </c>
+      <c r="U71">
+        <v>690.7391642214119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="4">
         <v>45108</v>
       </c>
@@ -4804,8 +5665,20 @@
       <c r="Q72" s="5">
         <v>22691.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="R72">
+        <v>-8.322752359239928</v>
+      </c>
+      <c r="S72">
+        <v>-0.19958667322418319</v>
+      </c>
+      <c r="T72">
+        <v>3020.1274120654912</v>
+      </c>
+      <c r="U72">
+        <v>808.72195590796969</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="4">
         <v>45139</v>
       </c>
@@ -4857,8 +5730,20 @@
       <c r="Q73" s="5">
         <v>22824.52</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="R73">
+        <v>-8.5760827678516183</v>
+      </c>
+      <c r="S73">
+        <v>0.25445456549936402</v>
+      </c>
+      <c r="T73">
+        <v>2889.2032899802812</v>
+      </c>
+      <c r="U73">
+        <v>966.68762255626064</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74" s="4">
         <v>45170</v>
       </c>
@@ -4910,8 +5795,20 @@
       <c r="Q74" s="5">
         <v>22831.06</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="R74">
+        <v>-9.4517930307605269</v>
+      </c>
+      <c r="S74">
+        <v>-7.515646309356154E-2</v>
+      </c>
+      <c r="T74">
+        <v>2844.3510615186251</v>
+      </c>
+      <c r="U74">
+        <v>1027.128422520655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75" s="4">
         <v>45200</v>
       </c>
@@ -4963,8 +5860,20 @@
       <c r="Q75" s="5">
         <v>22791.99</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="R75">
+        <v>-12.627932349639121</v>
+      </c>
+      <c r="S75">
+        <v>-0.58595049240287278</v>
+      </c>
+      <c r="T75">
+        <v>2873.6597399396269</v>
+      </c>
+      <c r="U75">
+        <v>1077.339088433165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76" s="4">
         <v>45231</v>
       </c>
@@ -5016,8 +5925,20 @@
       <c r="Q76" s="5">
         <v>22929.22</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="R76">
+        <v>-10.491847323386599</v>
+      </c>
+      <c r="S76">
+        <v>-0.1194266584655688</v>
+      </c>
+      <c r="T76">
+        <v>2780.6543938996651</v>
+      </c>
+      <c r="U76">
+        <v>1177.4006299992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77" s="4">
         <v>45261</v>
       </c>
@@ -5069,8 +5990,20 @@
       <c r="Q77" s="5">
         <v>23164.34</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="R77">
+        <v>-9.1314385535617646</v>
+      </c>
+      <c r="S77">
+        <v>6.2682750513528368E-2</v>
+      </c>
+      <c r="T77">
+        <v>2707.3979690018268</v>
+      </c>
+      <c r="U77">
+        <v>1247.3442437896249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78" s="4">
         <v>45292</v>
       </c>
@@ -5122,8 +6055,20 @@
       <c r="Q78" s="5">
         <v>22958.54</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="R78">
+        <v>-9.0349804242240701</v>
+      </c>
+      <c r="S78">
+        <v>-0.17871185891557931</v>
+      </c>
+      <c r="T78">
+        <v>2901.654196321138</v>
+      </c>
+      <c r="U78">
+        <v>1182.791569989558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79" s="4">
         <v>45323</v>
       </c>
@@ -5175,8 +6120,20 @@
       <c r="Q79" s="5">
         <v>23097.200000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="R79">
+        <v>-8.4047242487529115</v>
+      </c>
+      <c r="S79">
+        <v>-0.1086099310322849</v>
+      </c>
+      <c r="T79">
+        <v>2776.0794922646091</v>
+      </c>
+      <c r="U79">
+        <v>1332.3122360326061</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80" s="4">
         <v>45352</v>
       </c>
@@ -5228,8 +6185,20 @@
       <c r="Q80" s="5">
         <v>23108.799999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="R80">
+        <v>-9.7558336669368906</v>
+      </c>
+      <c r="S80">
+        <v>8.313634800044678E-2</v>
+      </c>
+      <c r="T80">
+        <v>2858.379260026451</v>
+      </c>
+      <c r="U80">
+        <v>1219.907058467933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81" s="4">
         <v>45383</v>
       </c>
@@ -5281,8 +6250,20 @@
       <c r="Q81" s="5">
         <v>23164.39</v>
       </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="R81">
+        <v>-6.2731041446643401</v>
+      </c>
+      <c r="S81">
+        <v>0.36589504839244608</v>
+      </c>
+      <c r="T81">
+        <v>2956.016158443605</v>
+      </c>
+      <c r="U81">
+        <v>1228.461855371067</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82" s="4">
         <v>45413</v>
       </c>
@@ -5334,8 +6315,20 @@
       <c r="Q82" s="5">
         <v>23250.14</v>
       </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>-7.3809636247706312</v>
+      </c>
+      <c r="S82">
+        <v>7.3154019725399477E-2</v>
+      </c>
+      <c r="T82">
+        <v>2812.0383080603528</v>
+      </c>
+      <c r="U82">
+        <v>1403.0047763442251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83" s="4">
         <v>45444</v>
       </c>
@@ -5387,8 +6380,20 @@
       <c r="Q83" s="5">
         <v>23261.08</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>-9.2506728211508964</v>
+      </c>
+      <c r="S83">
+        <v>4.9873693762126442E-2</v>
+      </c>
+      <c r="T83">
+        <v>2852.0710334245509</v>
+      </c>
+      <c r="U83">
+        <v>1342.807898945405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84" s="4">
         <v>45474</v>
       </c>
@@ -5440,8 +6445,20 @@
       <c r="Q84" s="5">
         <v>23400.78</v>
       </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>-10.597698183962009</v>
+      </c>
+      <c r="S84">
+        <v>2.6854650325407101E-2</v>
+      </c>
+      <c r="T84">
+        <v>2919.5036783665032</v>
+      </c>
+      <c r="U84">
+        <v>1437.160783927241</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="4">
         <v>45505</v>
       </c>
@@ -5493,8 +6510,20 @@
       <c r="Q85" s="5">
         <v>23412.69</v>
       </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>-8.1289518887997314</v>
+      </c>
+      <c r="S85">
+        <v>0.11038002790674201</v>
+      </c>
+      <c r="T85">
+        <v>2946.60542635103</v>
+      </c>
+      <c r="U85">
+        <v>1399.1066743330259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="4">
         <v>45536</v>
       </c>
@@ -5546,8 +6575,20 @@
       <c r="Q86" s="5">
         <v>23391.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>-7.4427848458370676</v>
+      </c>
+      <c r="S86">
+        <v>-0.1202451371220923</v>
+      </c>
+      <c r="T86">
+        <v>2994.271454328954</v>
+      </c>
+      <c r="U86">
+        <v>1339.553709729204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="4">
         <v>45566</v>
       </c>
@@ -5599,8 +6640,20 @@
       <c r="Q87" s="5">
         <v>23528.19</v>
       </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>-9.3725110011465613</v>
+      </c>
+      <c r="S87">
+        <v>2.946125705150519E-2</v>
+      </c>
+      <c r="T87">
+        <v>2914.840606398282</v>
+      </c>
+      <c r="U87">
+        <v>1396.4157105643569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="4">
         <v>45597</v>
       </c>
@@ -5652,8 +6705,20 @@
       <c r="Q88" s="5">
         <v>23587.96</v>
       </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="R88">
+        <v>-9.2963010017657126</v>
+      </c>
+      <c r="S88">
+        <v>0.1367471544444529</v>
+      </c>
+      <c r="T88">
+        <v>2966.154638608507</v>
+      </c>
+      <c r="U88">
+        <v>1313.4548595386279</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89" s="4">
         <v>45627</v>
       </c>
@@ -5705,8 +6770,20 @@
       <c r="Q89" s="5">
         <v>23514.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="R89">
+        <v>-5.6334010103816814</v>
+      </c>
+      <c r="S89">
+        <v>0.31111915582253202</v>
+      </c>
+      <c r="T89">
+        <v>3093.4991515971369</v>
+      </c>
+      <c r="U89">
+        <v>1150.8565189769561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90" s="4">
         <v>45658</v>
       </c>
@@ -5758,11 +6835,23 @@
       <c r="Q90" s="5">
         <v>23552.74</v>
       </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>-6.9914733850327986</v>
+      </c>
+      <c r="S90">
+        <v>7.2890569187610998E-2</v>
+      </c>
+      <c r="T90">
+        <v>3489.1534176721871</v>
+      </c>
+      <c r="U90">
+        <v>1188.7875664634969</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="7"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:21">
       <c r="A92" s="7"/>
     </row>
   </sheetData>
